--- a/data/GluD2.xlsx
+++ b/data/GluD2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\R\IHC\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\LT-AoP-22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6804D2E-80FD-4AE7-8560-4E8CAF24C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987F252-5D16-4288-8448-B256C8D9C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GluD2" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="181">
   <si>
     <t>1N1a</t>
   </si>
@@ -568,13 +568,19 @@
   </si>
   <si>
     <t>Vol_GLUD2</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>P60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,8 +715,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,13 +904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1093,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,83 +1104,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1431,4421 +1456,4929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C769C5A-649A-4C3E-B346-EE8DA349B633}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.61328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.3046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="7">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="8">
         <v>8982.1901150259037</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="2">
         <v>6.86</v>
       </c>
-      <c r="F2" s="12">
+      <c r="G2" s="9">
         <v>6.253137060800011</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.59</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="14">
+      <c r="D3" s="7">
         <v>13</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="8">
         <v>14735.461076708998</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="2">
         <v>8.43</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="9">
         <v>7.35683196278681</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.41</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="14">
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="8">
         <v>12053.519765999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="2">
         <v>6.92</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="9">
         <v>6.3861011782385653</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.35</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="8">
         <v>7870.3722348086794</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="2">
         <v>6.69</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="9">
         <v>6.1382165957879575</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="8">
         <v>7392.0390357460001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="2">
         <v>7.2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="9">
         <v>4.6097545296000035</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.57</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="7">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="8">
         <v>7705.6233325400008</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="2">
         <v>7.52</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="9">
         <v>6.174170266578261</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.89</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="14">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="8">
         <v>6063.7288147348017</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="2">
         <v>4.62</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="9">
         <v>2.6460979333028747</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.82</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="8">
         <v>7988.9425557619998</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="2">
         <v>7.6</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="9">
         <v>6.43</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.65</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="8">
         <v>11102.866862729999</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="2">
         <v>11.3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="9">
         <v>10.641378046438465</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.06</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="7">
         <v>13</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="8">
         <v>11786.442873699998</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="2">
         <v>10.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="9">
         <v>8.9954058834112818</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.39</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="10">
         <v>6076</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="2">
         <v>8.76</v>
       </c>
-      <c r="F12" s="12">
+      <c r="G12" s="9">
         <v>7.48424851015809</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.52</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="14">
+      <c r="D13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="8">
         <v>7006.5925641399999</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="2">
         <v>6.55</v>
       </c>
-      <c r="F13" s="12">
+      <c r="G13" s="9">
         <v>5.9372624816572461</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.59</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="8">
         <v>8401.4567583999997</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="2">
         <v>7.75</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="9">
         <v>6.4718348051550896</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.82</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="14">
+      <c r="D15" s="7">
         <v>12</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="8">
         <v>11497.473451711001</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="2">
         <v>7.39</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="9">
         <v>5.967327915098311</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.35</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D16" s="7">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="8">
         <v>9096.889243130001</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="2">
         <v>5.61</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="9">
         <v>4.66</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.56</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="14">
+      <c r="D17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="8">
         <v>6828.9844970900012</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="2">
         <v>7.62</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="9">
         <v>6.8549066716090969</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.55</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.81</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="8">
         <v>11931.686896706</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="9">
         <v>7.9837206752244763</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.53</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="14">
+      <c r="D19" s="7">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="8">
         <v>5890.2779168599991</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="2">
         <v>7.05</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="9">
         <v>6.3502898093985376</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.23</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="14">
+      <c r="D20" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="8">
         <v>6389.7890813900003</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="2">
         <v>7.96</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="9">
         <v>7.3205070893548703</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.84</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="14">
+      <c r="D21" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="8">
         <v>9280.4015856700007</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="2">
         <v>9.0500000000000007</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="9">
         <v>5.8746700653812622</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.65</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2.34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="14">
+      <c r="D22" s="7">
         <v>7</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="8">
         <v>5632.7994251399996</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="2">
         <v>7.54</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="9">
         <v>6.51</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.76</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="14">
+      <c r="D23" s="7">
         <v>13</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="8">
         <v>12845.673461225704</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="2">
         <v>8.34</v>
       </c>
-      <c r="F23" s="12">
+      <c r="G23" s="9">
         <v>7.2814733743818474</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.95</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="14">
+      <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="8">
         <v>5888.580166015</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="2">
         <v>7.7</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="9">
         <v>6.284008682051244</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.57</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="14">
+      <c r="D25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="8">
         <v>7508.3877422000005</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="2">
         <v>7.88</v>
       </c>
-      <c r="F25" s="12">
+      <c r="G25" s="9">
         <v>7.1889938848870925</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.57</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="14">
+      <c r="D26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="8">
         <v>4861.8080444999996</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="2">
         <v>8.25</v>
       </c>
-      <c r="F26" s="12">
+      <c r="G26" s="9">
         <v>7.6929132696472688</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="14">
+      <c r="D27" s="7">
         <v>4</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="8">
         <v>4204.6328827300013</v>
       </c>
-      <c r="E27" s="9">
+      <c r="F27" s="2">
         <v>3.92</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="9">
         <v>3.1252964090801458</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="14">
+      <c r="D28" s="7">
         <v>13</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="8">
         <v>12843.881981682802</v>
       </c>
-      <c r="E28" s="9">
+      <c r="F28" s="2">
         <v>9.31</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="9">
         <v>8.1245737394165136</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.91</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="14">
+      <c r="D29" s="7">
         <v>11</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="8">
         <v>9334.9741129329996</v>
       </c>
-      <c r="E29" s="9">
+      <c r="F29" s="2">
         <v>7.8</v>
       </c>
-      <c r="F29" s="12">
+      <c r="G29" s="9">
         <v>6.8791537145278356</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="14">
+      <c r="D30" s="7">
         <v>11</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="8">
         <v>8640.8204569999998</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F30" s="2">
         <v>12.9</v>
       </c>
-      <c r="F30" s="12">
+      <c r="G30" s="9">
         <v>4.7888041566999942</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.36</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.65</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="14">
+      <c r="D31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="8">
         <v>7278.3982070000002</v>
       </c>
-      <c r="E31" s="9">
+      <c r="F31" s="2">
         <v>6.97</v>
       </c>
-      <c r="F31" s="12">
+      <c r="G31" s="9">
         <v>4.8070299323189003</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="14">
+      <c r="D32" s="7">
         <v>8</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="8">
         <v>11344.989930061001</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="2">
         <v>7.92</v>
       </c>
-      <c r="F32" s="12">
+      <c r="G32" s="9">
         <v>6.7806124173795164</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.46</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.02</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="14">
+      <c r="D33" s="7">
         <v>9</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="8">
         <v>24795.687231999989</v>
       </c>
-      <c r="E33" s="9">
+      <c r="F33" s="2">
         <v>12</v>
       </c>
-      <c r="F33" s="12">
+      <c r="G33" s="9">
         <v>11.693860964004443</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2.84</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1.69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="14">
+      <c r="D34" s="7">
         <v>9</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="8">
         <v>15189.274629999989</v>
       </c>
-      <c r="E34" s="9">
+      <c r="F34" s="2">
         <v>9.14</v>
       </c>
-      <c r="F34" s="12">
+      <c r="G34" s="9">
         <v>8.5867916770144159</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.8</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="14">
+      <c r="D35" s="7">
         <v>9</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="8">
         <v>10048.005669999995</v>
       </c>
-      <c r="E35" s="9">
+      <c r="F35" s="2">
         <v>11.4</v>
       </c>
-      <c r="F35" s="12">
+      <c r="G35" s="9">
         <v>8.8485822818885254</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="14">
+      <c r="D36" s="7">
         <v>10</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="8">
         <v>8189.6333044499988</v>
       </c>
-      <c r="E36" s="9">
+      <c r="F36" s="2">
         <v>5.3</v>
       </c>
-      <c r="F36" s="12">
+      <c r="G36" s="9">
         <v>3.8714585402614583</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.25</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.77</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="14">
+      <c r="D37" s="7">
         <v>11</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="8">
         <v>9008.4459511223504</v>
       </c>
-      <c r="E37" s="9">
+      <c r="F37" s="2">
         <v>5.94</v>
       </c>
-      <c r="F37" s="12">
+      <c r="G37" s="9">
         <v>4.5831399884226132</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>3.11</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1.54</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="14">
+      <c r="D38" s="7">
         <v>9</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="8">
         <v>9721.6370087719988</v>
       </c>
-      <c r="E38" s="9">
+      <c r="F38" s="2">
         <v>5.19</v>
       </c>
-      <c r="F38" s="12">
+      <c r="G38" s="9">
         <v>3.9027509716667539</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1.89</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1.87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="14">
+      <c r="D39" s="7">
         <v>5</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="8">
         <v>6496.04061757</v>
       </c>
-      <c r="E39" s="9">
+      <c r="F39" s="2">
         <v>5.36</v>
       </c>
-      <c r="F39" s="12">
+      <c r="G39" s="9">
         <v>4.3659243605364457</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2.31</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1.44</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="14">
+      <c r="D40" s="7">
         <v>10</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="8">
         <v>10956.484895069998</v>
       </c>
-      <c r="E40" s="9">
+      <c r="F40" s="2">
         <v>5.56</v>
       </c>
-      <c r="F40" s="12">
+      <c r="G40" s="9">
         <v>4.72</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.84</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="14">
+      <c r="D41" s="7">
         <v>12</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="8">
         <v>5949.9581619999999</v>
       </c>
-      <c r="E41" s="9">
+      <c r="F41" s="2">
         <v>9.41</v>
       </c>
-      <c r="F41" s="12">
+      <c r="G41" s="9">
         <v>8.15</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1.59</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="14">
+      <c r="D42" s="7">
         <v>12</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="8">
         <v>11200</v>
       </c>
-      <c r="E42" s="9">
+      <c r="F42" s="2">
         <v>6.02</v>
       </c>
-      <c r="F42" s="12">
+      <c r="G42" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3.24</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="14">
+      <c r="D43" s="7">
         <v>8</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="8">
         <v>10681.497663717</v>
       </c>
-      <c r="E43" s="9">
+      <c r="F43" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F43" s="12">
+      <c r="G43" s="9">
         <v>7.4156804931506475</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1.28</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2.36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="14">
+      <c r="D44" s="7">
         <v>8</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="8">
         <v>7291.9375297029992</v>
       </c>
-      <c r="E44" s="9">
+      <c r="F44" s="2">
         <v>4.3</v>
       </c>
-      <c r="F44" s="12">
+      <c r="G44" s="9">
         <v>3.5298642455770541</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1.69</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1.56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="14">
+      <c r="D45" s="7">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="8">
         <v>13473.251754942507</v>
       </c>
-      <c r="E45" s="9">
+      <c r="F45" s="2">
         <v>7.07</v>
       </c>
-      <c r="F45" s="12">
+      <c r="G45" s="9">
         <v>5.5971317561823239</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2.04</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1.51</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="14">
+      <c r="D46" s="7">
         <v>7</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="8">
         <v>8090.2436906099992</v>
       </c>
-      <c r="E46" s="9">
+      <c r="F46" s="2">
         <v>7.11</v>
       </c>
-      <c r="F46" s="12">
+      <c r="G46" s="9">
         <v>5.8544006549050742</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1.55</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1.81</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="14">
+      <c r="D47" s="7">
         <v>9</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="8">
         <v>8246.2229778403034</v>
       </c>
-      <c r="E47" s="9">
+      <c r="F47" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F47" s="12">
+      <c r="G47" s="9">
         <v>6.7079721493147515</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="14">
+      <c r="D48" s="7">
         <v>6</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="8">
         <v>5698.3681094000003</v>
       </c>
-      <c r="E48" s="9">
+      <c r="F48" s="2">
         <v>6.28</v>
       </c>
-      <c r="F48" s="12">
+      <c r="G48" s="9">
         <v>5.3724083493754948</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>2.93</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2.19</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="14">
+      <c r="D49" s="7">
         <v>7</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="8">
         <v>7890.4351513330012</v>
       </c>
-      <c r="E49" s="9">
+      <c r="F49" s="2">
         <v>6.24</v>
       </c>
-      <c r="F49" s="12">
+      <c r="G49" s="9">
         <v>3.3714163164177875</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1.66</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="14">
+      <c r="D50" s="7">
         <v>7</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="8">
         <v>6728.1632696100023</v>
       </c>
-      <c r="E50" s="9">
+      <c r="F50" s="2">
         <v>6.29</v>
       </c>
-      <c r="F50" s="12">
+      <c r="G50" s="9">
         <v>3.1027197424625337</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1.86</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="14">
+      <c r="D51" s="7">
         <v>10</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="8">
         <v>12584.585716678001</v>
       </c>
-      <c r="E51" s="9">
+      <c r="F51" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F51" s="12">
+      <c r="G51" s="9">
         <v>3.8446177794521135</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>2.41</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="14">
+      <c r="D52" s="7">
         <v>9</v>
       </c>
-      <c r="D52" s="6">
+      <c r="E52" s="8">
         <v>10503.939550709998</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="2">
         <v>6.46</v>
       </c>
-      <c r="F52" s="12">
+      <c r="G52" s="9">
         <v>6.1971169270676123</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2.63</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="14">
+      <c r="D53" s="7">
         <v>9</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="8">
         <v>9088.7634762999987</v>
       </c>
-      <c r="E53" s="9">
+      <c r="F53" s="2">
         <v>7.89</v>
       </c>
-      <c r="F53" s="12">
+      <c r="G53" s="9">
         <v>5.4158870801544934</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1.73</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2.39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="14">
+      <c r="D54" s="7">
         <v>10</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="8">
         <v>7028.8271889999978</v>
       </c>
-      <c r="E54" s="9">
+      <c r="F54" s="2">
         <v>5.48</v>
       </c>
-      <c r="F54" s="12">
+      <c r="G54" s="9">
         <v>2.390229804599997</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1.85</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1.47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="14">
+      <c r="D55" s="7">
         <v>14</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="8">
         <v>8532.7556340000046</v>
       </c>
-      <c r="E55" s="9">
+      <c r="F55" s="2">
         <v>9.08</v>
       </c>
-      <c r="F55" s="12">
+      <c r="G55" s="9">
         <v>6.38</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1.95</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="14">
+      <c r="D56" s="7">
         <v>10</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="8">
         <v>7472.7446689999961</v>
       </c>
-      <c r="E56" s="9">
+      <c r="F56" s="2">
         <v>6.55</v>
       </c>
-      <c r="F56" s="12">
+      <c r="G56" s="9">
         <v>2.3481487614000027</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>3.08</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1.81</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="14">
+      <c r="D57" s="7">
         <v>6</v>
       </c>
-      <c r="D57" s="6">
+      <c r="E57" s="8">
         <v>8698.3503936300021</v>
       </c>
-      <c r="E57" s="9">
+      <c r="F57" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F57" s="12">
+      <c r="G57" s="9">
         <v>7.0814851296077581</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>2.59</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="14">
+      <c r="D58" s="7">
         <v>7</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E58" s="8">
         <v>6777.7898827561003</v>
       </c>
-      <c r="E58" s="9">
+      <c r="F58" s="2">
         <v>6.9</v>
       </c>
-      <c r="F58" s="12">
+      <c r="G58" s="9">
         <v>5.8692812169253488</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>2.1</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>2.34</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="14">
+      <c r="D59" s="7">
         <v>8</v>
       </c>
-      <c r="D59" s="6">
+      <c r="E59" s="8">
         <v>7411.0348167700013</v>
       </c>
-      <c r="E59" s="9">
+      <c r="F59" s="2">
         <v>7.89</v>
       </c>
-      <c r="F59" s="12">
+      <c r="G59" s="9">
         <v>6.5605911538217621</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>2.52</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="14">
+      <c r="D60" s="7">
         <v>8</v>
       </c>
-      <c r="D60" s="6">
+      <c r="E60" s="8">
         <v>7327.9486884030011</v>
       </c>
-      <c r="E60" s="9">
+      <c r="F60" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="F60" s="12">
+      <c r="G60" s="9">
         <v>7.0433915094487238</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1.55</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="14">
+      <c r="D61" s="7">
         <v>5</v>
       </c>
-      <c r="D61" s="6">
+      <c r="E61" s="8">
         <v>7769.6633058499983</v>
       </c>
-      <c r="E61" s="9">
+      <c r="F61" s="2">
         <v>9.6</v>
       </c>
-      <c r="F61" s="12">
+      <c r="G61" s="9">
         <v>7.1081841363195402</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>2.29</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>1.81</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="14">
+      <c r="D62" s="7">
         <v>9</v>
       </c>
-      <c r="D62" s="6">
+      <c r="E62" s="8">
         <v>11300</v>
       </c>
-      <c r="E62" s="9">
+      <c r="F62" s="2">
         <v>9.0299999999999994</v>
       </c>
-      <c r="F62" s="12">
+      <c r="G62" s="9">
         <v>6.02</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1.74</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>2.21</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="14">
+      <c r="D63" s="7">
         <v>9</v>
       </c>
-      <c r="D63" s="6">
+      <c r="E63" s="8">
         <v>7468.8312832999982</v>
       </c>
-      <c r="E63" s="9">
+      <c r="F63" s="2">
         <v>10.3</v>
       </c>
-      <c r="F63" s="12">
+      <c r="G63" s="9">
         <v>8.8665693556644065</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1.81</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="14">
+      <c r="D64" s="7">
         <v>11</v>
       </c>
-      <c r="D64" s="6">
+      <c r="E64" s="8">
         <v>12162.104258877996</v>
       </c>
-      <c r="E64" s="9">
+      <c r="F64" s="2">
         <v>13.1</v>
       </c>
-      <c r="F64" s="12">
+      <c r="G64" s="9">
         <v>12</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1.58</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="14">
+      <c r="D65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="6">
+      <c r="E65" s="8">
         <v>4307.7871791399994</v>
       </c>
-      <c r="E65" s="9">
+      <c r="F65" s="2">
         <v>7.29</v>
       </c>
-      <c r="F65" s="12">
+      <c r="G65" s="9">
         <v>5.5039666069895361</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>2.7</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1.73</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="14">
+      <c r="D66" s="7">
         <v>11</v>
       </c>
-      <c r="D66" s="6">
+      <c r="E66" s="8">
         <v>7872.2261859000009</v>
       </c>
-      <c r="E66" s="9">
+      <c r="F66" s="2">
         <v>7.16</v>
       </c>
-      <c r="F66" s="12">
+      <c r="G66" s="9">
         <v>5.9786958299823576</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>2.14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="14">
+      <c r="D67" s="7">
         <v>9</v>
       </c>
-      <c r="D67" s="6">
+      <c r="E67" s="8">
         <v>10418.280545472402</v>
       </c>
-      <c r="E67" s="9">
+      <c r="F67" s="2">
         <v>8.16</v>
       </c>
-      <c r="F67" s="12">
+      <c r="G67" s="9">
         <v>7.25</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1.54</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>2.16</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="14">
+      <c r="D68" s="7">
         <v>11</v>
       </c>
-      <c r="D68" s="6">
+      <c r="E68" s="8">
         <v>9688.8969345899968</v>
       </c>
-      <c r="E68" s="9">
+      <c r="F68" s="2">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F68" s="12">
+      <c r="G68" s="9">
         <v>7.0732184406015</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>2.42</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="14">
+      <c r="D69" s="7">
         <v>11</v>
       </c>
-      <c r="D69" s="6">
+      <c r="E69" s="8">
         <v>11224.473603196002</v>
       </c>
-      <c r="E69" s="9">
+      <c r="F69" s="2">
         <v>9.94</v>
       </c>
-      <c r="F69" s="12">
+      <c r="G69" s="9">
         <v>9.5137255221602306</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>2.17</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>2.34</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="14">
+      <c r="D70" s="7">
         <v>8</v>
       </c>
-      <c r="D70" s="6">
+      <c r="E70" s="8">
         <v>5955.4621926</v>
       </c>
-      <c r="E70" s="9">
+      <c r="F70" s="2">
         <v>8.74</v>
       </c>
-      <c r="F70" s="12">
+      <c r="G70" s="9">
         <v>7.5017590319008711</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>2.64</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>2.13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="14">
+      <c r="D71" s="7">
         <v>6</v>
       </c>
-      <c r="D71" s="6">
+      <c r="E71" s="8">
         <v>6539.1975493</v>
       </c>
-      <c r="E71" s="9">
+      <c r="F71" s="2">
         <v>7.76</v>
       </c>
-      <c r="F71" s="12">
+      <c r="G71" s="9">
         <v>7.2313051880657007</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>1.8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="14">
+      <c r="D72" s="7">
         <v>11</v>
       </c>
-      <c r="D72" s="6">
+      <c r="E72" s="8">
         <v>10155.762804599999</v>
       </c>
-      <c r="E72" s="9">
+      <c r="F72" s="2">
         <v>8.36</v>
       </c>
-      <c r="F72" s="12">
+      <c r="G72" s="9">
         <v>7.2311548964320247</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>1.92</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="14">
+      <c r="D73" s="7">
         <v>9</v>
       </c>
-      <c r="D73" s="6">
+      <c r="E73" s="8">
         <v>7610.4611210300009</v>
       </c>
-      <c r="E73" s="9">
+      <c r="F73" s="2">
         <v>9.98</v>
       </c>
-      <c r="F73" s="12">
+      <c r="G73" s="9">
         <v>9.0157427611578296</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1.64</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>2.04</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="14">
+      <c r="D74" s="7">
         <v>7</v>
       </c>
-      <c r="D74" s="6">
+      <c r="E74" s="8">
         <v>7202.1509144200008</v>
       </c>
-      <c r="E74" s="9">
+      <c r="F74" s="2">
         <v>6.46</v>
       </c>
-      <c r="F74" s="12">
+      <c r="G74" s="9">
         <v>5.2273978289140945</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>2.02</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>2.08</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="14">
+      <c r="D75" s="7">
         <v>8</v>
       </c>
-      <c r="D75" s="6">
+      <c r="E75" s="8">
         <v>6567.0403488816</v>
       </c>
-      <c r="E75" s="9">
+      <c r="F75" s="2">
         <v>7.25</v>
       </c>
-      <c r="F75" s="12">
+      <c r="G75" s="9">
         <v>6.6122092283023086</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1.68</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>1.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="14">
+      <c r="D76" s="7">
         <v>8</v>
       </c>
-      <c r="D76" s="6">
+      <c r="E76" s="8">
         <v>8467.7776365999998</v>
       </c>
-      <c r="E76" s="9">
+      <c r="F76" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F76" s="12">
+      <c r="G76" s="9">
         <v>8.7564474025700374</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1.59</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>2.02</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="14">
+      <c r="D77" s="7">
         <v>7</v>
       </c>
-      <c r="D77" s="6">
+      <c r="E77" s="8">
         <v>6183.9956470999996</v>
       </c>
-      <c r="E77" s="9">
+      <c r="F77" s="2">
         <v>5.23</v>
       </c>
-      <c r="F77" s="12">
+      <c r="G77" s="9">
         <v>4.25</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>1.73</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="14">
+      <c r="D78" s="7">
         <v>7</v>
       </c>
-      <c r="D78" s="6">
+      <c r="E78" s="8">
         <v>8498.7040832019993</v>
       </c>
-      <c r="E78" s="9">
+      <c r="F78" s="2">
         <v>7.03</v>
       </c>
-      <c r="F78" s="12">
+      <c r="G78" s="9">
         <v>5.927524380922697</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>2.52</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="14">
+      <c r="D79" s="7">
         <v>7</v>
       </c>
-      <c r="D79" s="6">
+      <c r="E79" s="8">
         <v>6730.6665753070019</v>
       </c>
-      <c r="E79" s="9">
+      <c r="F79" s="2">
         <v>7.02</v>
       </c>
-      <c r="F79" s="12">
+      <c r="G79" s="9">
         <v>5.8343808984002372</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>2.79</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>2.14</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C80" s="14">
+      <c r="D80" s="7">
         <v>8</v>
       </c>
-      <c r="D80" s="6">
+      <c r="E80" s="8">
         <v>7001.6357282999998</v>
       </c>
-      <c r="E80" s="9">
+      <c r="F80" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="F80" s="12">
+      <c r="G80" s="9">
         <v>8.154021047959505</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1.97</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2.56</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="14">
+      <c r="D81" s="7">
         <v>10</v>
       </c>
-      <c r="D81" s="6">
+      <c r="E81" s="8">
         <v>8483.9110254080006</v>
       </c>
-      <c r="E81" s="9">
+      <c r="F81" s="2">
         <v>7.72</v>
       </c>
-      <c r="F81" s="12">
+      <c r="G81" s="9">
         <v>7.2149151990901474</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1.38</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>2.06</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="14">
+      <c r="D82" s="7">
         <v>10</v>
       </c>
-      <c r="D82" s="6">
+      <c r="E82" s="8">
         <v>8224.0597140122554</v>
       </c>
-      <c r="E82" s="9">
+      <c r="F82" s="2">
         <v>9.35</v>
       </c>
-      <c r="F82" s="12">
+      <c r="G82" s="9">
         <v>8.42</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>0.98</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>2.29</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="14">
+      <c r="D83" s="7">
         <v>10</v>
       </c>
-      <c r="D83" s="6">
+      <c r="E83" s="8">
         <v>10303.474519619002</v>
       </c>
-      <c r="E83" s="9">
+      <c r="F83" s="2">
         <v>7.8</v>
       </c>
-      <c r="F83" s="12">
+      <c r="G83" s="9">
         <v>6.0531833313791088</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1.05</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>1.65</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="14">
+      <c r="D84" s="7">
         <v>9</v>
       </c>
-      <c r="D84" s="6">
+      <c r="E84" s="8">
         <v>6375.760078100001</v>
       </c>
-      <c r="E84" s="9">
+      <c r="F84" s="2">
         <v>7.33</v>
       </c>
-      <c r="F84" s="12">
+      <c r="G84" s="9">
         <v>5.4098714850977174</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1.95</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="9">
+      <c r="D85" s="2">
         <v>11</v>
       </c>
-      <c r="D85" s="7">
+      <c r="E85" s="10">
         <v>5698.3260880000016</v>
       </c>
-      <c r="E85" s="10">
+      <c r="F85" s="9">
         <v>8.8485822818885254</v>
       </c>
-      <c r="F85" s="12">
+      <c r="G85" s="9">
         <v>5.3230410811000048</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1.43</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>2.21</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="9">
+      <c r="D86" s="2">
         <v>8</v>
       </c>
-      <c r="D86" s="7">
+      <c r="E86" s="10">
         <v>5635.8593530000007</v>
       </c>
-      <c r="E86" s="10">
+      <c r="F86" s="9">
         <v>6.57</v>
       </c>
-      <c r="F86" s="12">
+      <c r="G86" s="9">
         <v>3.7398551062999874</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>2.13</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>2.42</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="9">
+      <c r="D87" s="2">
         <v>9</v>
       </c>
-      <c r="D87" s="7">
+      <c r="E87" s="10">
         <v>6503.6627020000014</v>
       </c>
-      <c r="E87" s="10">
+      <c r="F87" s="9">
         <v>5.6</v>
       </c>
-      <c r="F87" s="12">
+      <c r="G87" s="9">
         <v>2.9498757321000024</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>2.29</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>2.16</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="9">
+      <c r="D88" s="2">
         <v>12</v>
       </c>
-      <c r="D88" s="7">
+      <c r="E88" s="10">
         <v>8156.5488319999995</v>
       </c>
-      <c r="E88" s="10">
+      <c r="F88" s="9">
         <v>7.97</v>
       </c>
-      <c r="F88" s="12">
+      <c r="G88" s="9">
         <v>3.4939080987999995</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>2.92</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>1.82</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="9">
+      <c r="D89" s="2">
         <v>8</v>
       </c>
-      <c r="D89" s="7">
+      <c r="E89" s="10">
         <v>8447.8088739999985</v>
       </c>
-      <c r="E89" s="10">
+      <c r="F89" s="9">
         <v>5.33</v>
       </c>
-      <c r="F89" s="12">
+      <c r="G89" s="9">
         <v>3.3</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>2.35</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>1.46</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C90" s="9">
+      <c r="D90" s="2">
         <v>7</v>
       </c>
-      <c r="D90" s="7">
+      <c r="E90" s="10">
         <v>4177.2889699999978</v>
       </c>
-      <c r="E90" s="10">
+      <c r="F90" s="9">
         <v>9.69</v>
       </c>
-      <c r="F90" s="12">
+      <c r="G90" s="9">
         <v>7.9899757627000003</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>2.57</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>2.34</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="9">
+      <c r="D91" s="2">
         <v>8</v>
       </c>
-      <c r="D91" s="7">
+      <c r="E91" s="10">
         <v>6151.5260540000054</v>
       </c>
-      <c r="E91" s="10">
+      <c r="F91" s="9">
         <v>9.9600000000000009</v>
       </c>
-      <c r="F91" s="12">
+      <c r="G91" s="9">
         <v>6.7338988620999736</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>3.25</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>2.13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="9">
+      <c r="D92" s="2">
         <v>9</v>
       </c>
-      <c r="D92" s="7">
+      <c r="E92" s="10">
         <v>6729.5279480000017</v>
       </c>
-      <c r="E92" s="10">
+      <c r="F92" s="9">
         <v>9.14</v>
       </c>
-      <c r="F92" s="12">
+      <c r="G92" s="9">
         <v>8.4322912149000047</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>1.5</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>2.58</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C93" s="9">
+      <c r="D93" s="2">
         <v>10</v>
       </c>
-      <c r="D93" s="7">
+      <c r="E93" s="10">
         <v>7566.5447760000006</v>
       </c>
-      <c r="E93" s="10">
+      <c r="F93" s="9">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F93" s="12">
+      <c r="G93" s="9">
         <v>6.6306058597000055</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>1.9</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>2.61</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C94" s="9">
+      <c r="D94" s="2">
         <v>10</v>
       </c>
-      <c r="D94" s="7">
+      <c r="E94" s="10">
         <v>9123.6027939999985</v>
       </c>
-      <c r="E94" s="10">
+      <c r="F94" s="9">
         <v>10.8</v>
       </c>
-      <c r="F94" s="12">
+      <c r="G94" s="9">
         <v>9.48</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>2.14</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>2.33</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="9">
+      <c r="D95" s="2">
         <v>7</v>
       </c>
-      <c r="D95" s="7">
+      <c r="E95" s="10">
         <v>1770.2490950000001</v>
       </c>
-      <c r="E95" s="10">
+      <c r="F95" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F95" s="12">
+      <c r="G95" s="9">
         <v>3.9385937347000013</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>2.79</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>1.96</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="9">
+      <c r="D96" s="2">
         <v>10</v>
       </c>
-      <c r="D96" s="7">
+      <c r="E96" s="10">
         <v>15798.308799000002</v>
       </c>
-      <c r="E96" s="10">
+      <c r="F96" s="9">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F96" s="12">
+      <c r="G96" s="9">
         <v>7.98</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>2.46</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>2.09</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="9">
+      <c r="D97" s="2">
         <v>9</v>
       </c>
-      <c r="D97" s="7">
+      <c r="E97" s="10">
         <v>7542.5734959999991</v>
       </c>
-      <c r="E97" s="10">
+      <c r="F97" s="9">
         <v>9.8800000000000008</v>
       </c>
-      <c r="F97" s="12">
+      <c r="G97" s="9">
         <v>8.2200000000000006</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>2.16</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C98" s="9">
+      <c r="D98" s="2">
         <v>11</v>
       </c>
-      <c r="D98" s="7">
+      <c r="E98" s="10">
         <v>2923.4436970000011</v>
       </c>
-      <c r="E98" s="10">
+      <c r="F98" s="9">
         <v>9.32</v>
       </c>
-      <c r="F98" s="12">
+      <c r="G98" s="9">
         <v>7.29</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>2.17</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="9">
+      <c r="D99" s="2">
         <v>11</v>
       </c>
-      <c r="D99" s="7">
+      <c r="E99" s="10">
         <v>8873.8744799999986</v>
       </c>
-      <c r="E99" s="10">
+      <c r="F99" s="9">
         <v>11.2</v>
       </c>
-      <c r="F99" s="12">
+      <c r="G99" s="9">
         <v>10.7</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1.41</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>2.14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="9">
+      <c r="D100" s="2">
         <v>7</v>
       </c>
-      <c r="D100" s="7">
+      <c r="E100" s="10">
         <v>6082.4600594690255</v>
       </c>
-      <c r="E100" s="10">
+      <c r="F100" s="9">
         <v>11.5</v>
       </c>
-      <c r="F100" s="12">
+      <c r="G100" s="9">
         <v>10.8</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>1.37</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="9">
+      <c r="D101" s="2">
         <v>11</v>
       </c>
-      <c r="D101" s="7">
+      <c r="E101" s="10">
         <v>9719.8832419999999</v>
       </c>
-      <c r="E101" s="10">
+      <c r="F101" s="9">
         <v>10</v>
       </c>
-      <c r="F101" s="12">
+      <c r="G101" s="9">
         <v>9.56</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>1.7</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="9">
+      <c r="D102" s="2">
         <v>8</v>
       </c>
-      <c r="D102" s="7">
+      <c r="E102" s="10">
         <v>6559.2661386664322</v>
       </c>
-      <c r="E102" s="10">
+      <c r="F102" s="9">
         <v>7.96</v>
       </c>
-      <c r="F102" s="12">
+      <c r="G102" s="9">
         <v>7.18</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>2.02</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="9">
+      <c r="D103" s="2">
         <v>8</v>
       </c>
-      <c r="D103" s="7">
+      <c r="E103" s="10">
         <v>10467.665638225997</v>
       </c>
-      <c r="E103" s="10">
+      <c r="F103" s="9">
         <v>10.3</v>
       </c>
-      <c r="F103" s="12">
+      <c r="G103" s="9">
         <v>9.5399999999999991</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>2.1</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>1.57</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="9">
+      <c r="D104" s="2">
         <v>9</v>
       </c>
-      <c r="D104" s="7">
+      <c r="E104" s="10">
         <v>7939.3429970000025</v>
       </c>
-      <c r="E104" s="10">
+      <c r="F104" s="9">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F104" s="12">
+      <c r="G104" s="9">
         <v>7.8</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>2.42</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>2.04</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C105" s="9">
+      <c r="D105" s="2">
         <v>10</v>
       </c>
-      <c r="D105" s="7">
+      <c r="E105" s="10">
         <v>11423.547212000005</v>
       </c>
-      <c r="E105" s="10">
+      <c r="F105" s="9">
         <v>6.54</v>
       </c>
-      <c r="F105" s="12">
+      <c r="G105" s="9">
         <v>5.2</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>2.38</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>1.73</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C106" s="9">
+      <c r="D106" s="2">
         <v>9</v>
       </c>
-      <c r="D106" s="7">
+      <c r="E106" s="10">
         <v>7879.4604052150007</v>
       </c>
-      <c r="E106" s="10">
+      <c r="F106" s="9">
         <v>7.58</v>
       </c>
-      <c r="F106" s="12">
+      <c r="G106" s="9">
         <v>6.53</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>2.29</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>1.92</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C107" s="9">
+      <c r="D107" s="2">
         <v>9</v>
       </c>
-      <c r="D107" s="7">
+      <c r="E107" s="10">
         <v>9904.8420844605025</v>
       </c>
-      <c r="E107" s="10">
+      <c r="F107" s="9">
         <v>5.83</v>
       </c>
-      <c r="F107" s="12">
+      <c r="G107" s="9">
         <v>5.37</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>2.08</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>1.34</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C108" s="9">
+      <c r="D108" s="2">
         <v>12</v>
       </c>
-      <c r="D108" s="7">
+      <c r="E108" s="10">
         <v>13089.781296289999</v>
       </c>
-      <c r="E108" s="10">
+      <c r="F108" s="9">
         <v>6.86</v>
       </c>
-      <c r="F108" s="12">
+      <c r="G108" s="9">
         <v>5.89</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>1.71</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>1.58</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="9">
+      <c r="D109" s="2">
         <v>9</v>
       </c>
-      <c r="D109" s="7">
+      <c r="E109" s="10">
         <v>7985.263887706049</v>
       </c>
-      <c r="E109" s="10">
+      <c r="F109" s="9">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F109" s="12">
+      <c r="G109" s="9">
         <v>7.35</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>1.91</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>2.17</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="9">
+      <c r="D110" s="2">
         <v>8</v>
       </c>
-      <c r="D110" s="7">
+      <c r="E110" s="10">
         <v>20369.883100546907</v>
       </c>
-      <c r="E110" s="10">
+      <c r="F110" s="9">
         <v>8.19</v>
       </c>
-      <c r="F110" s="12">
+      <c r="G110" s="9">
         <v>7.43</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>2.83</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>2.12</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="9">
+      <c r="D111" s="2">
         <v>11</v>
       </c>
-      <c r="D111" s="7">
+      <c r="E111" s="10">
         <v>12697.009825739899</v>
       </c>
-      <c r="E111" s="10">
+      <c r="F111" s="9">
         <v>7.94</v>
       </c>
-      <c r="F111" s="12">
+      <c r="G111" s="9">
         <v>7.02</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>1.82</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>1.71</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="9">
+      <c r="D112" s="2">
         <v>9</v>
       </c>
-      <c r="D112" s="7">
+      <c r="E112" s="10">
         <v>12055.875604949999</v>
       </c>
-      <c r="E112" s="10">
+      <c r="F112" s="9">
         <v>5.47</v>
       </c>
-      <c r="F112" s="12">
+      <c r="G112" s="9">
         <v>4.21</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>2.34</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>1.66</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C113" s="9">
+      <c r="D113" s="2">
         <v>10</v>
       </c>
-      <c r="D113" s="7">
+      <c r="E113" s="10">
         <v>12066.893497995599</v>
       </c>
-      <c r="E113" s="10">
+      <c r="F113" s="9">
         <v>7.6</v>
       </c>
-      <c r="F113" s="12">
+      <c r="G113" s="9">
         <v>5.24</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>2.31</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>2.15</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="9">
+      <c r="D114" s="2">
         <v>3</v>
       </c>
-      <c r="D114" s="7">
+      <c r="E114" s="10">
         <v>3800.0560203999994</v>
       </c>
-      <c r="E114" s="9">
+      <c r="F114" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F114" s="12">
+      <c r="G114" s="9">
         <v>6.66</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>2.46</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>1.65</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C115" s="9">
+      <c r="D115" s="2">
         <v>6</v>
       </c>
-      <c r="D115" s="7">
+      <c r="E115" s="10">
         <v>5804.2260738999994</v>
       </c>
-      <c r="E115" s="9">
+      <c r="F115" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="F115" s="12">
+      <c r="G115" s="9">
         <v>7</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>1.93</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="9">
+      <c r="D116" s="2">
         <v>13</v>
       </c>
-      <c r="D116" s="7">
+      <c r="E116" s="10">
         <v>15318.455799063993</v>
       </c>
-      <c r="E116" s="9">
+      <c r="F116" s="2">
         <v>12.1</v>
       </c>
-      <c r="F116" s="12">
+      <c r="G116" s="9">
         <v>11</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>1.94</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>2.52</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C117" s="9">
+      <c r="D117" s="2">
         <v>12</v>
       </c>
-      <c r="D117" s="7">
+      <c r="E117" s="10">
         <v>20218.051359475892</v>
       </c>
-      <c r="E117" s="10">
+      <c r="F117" s="9">
         <v>7.5017590319008711</v>
       </c>
-      <c r="F117" s="12">
+      <c r="G117" s="9">
         <v>5.4752566821943747</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>1.47</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>2.27</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C118" s="9">
+      <c r="D118" s="2">
         <v>10</v>
       </c>
-      <c r="D118" s="7">
+      <c r="E118" s="10">
         <v>10455.467140431003</v>
       </c>
-      <c r="E118" s="10">
+      <c r="F118" s="9">
         <v>9.36</v>
       </c>
-      <c r="F118" s="12">
+      <c r="G118" s="9">
         <v>7.15</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>1.7</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>2.16</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="9">
+      <c r="D119" s="2">
         <v>11</v>
       </c>
-      <c r="D119" s="7">
+      <c r="E119" s="10">
         <v>7967.9373235679996</v>
       </c>
-      <c r="E119" s="10">
+      <c r="F119" s="9">
         <v>10.1</v>
       </c>
-      <c r="F119" s="12">
+      <c r="G119" s="9">
         <v>7.45</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>1.98</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>2.16</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="9">
+      <c r="D120" s="2">
         <v>11</v>
       </c>
-      <c r="D120" s="7">
+      <c r="E120" s="10">
         <v>11892.607628824993</v>
       </c>
-      <c r="E120" s="10">
+      <c r="F120" s="9">
         <v>12</v>
       </c>
-      <c r="F120" s="12">
+      <c r="G120" s="9">
         <v>11.7</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>1.65</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>2.16</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C121" s="9">
+      <c r="D121" s="2">
         <v>9</v>
       </c>
-      <c r="D121" s="7">
+      <c r="E121" s="10">
         <v>9833.177157088001</v>
       </c>
-      <c r="E121" s="10">
+      <c r="F121" s="9">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F121" s="12">
+      <c r="G121" s="9">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>1.81</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>2.6</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="9">
+      <c r="D122" s="2">
         <v>7</v>
       </c>
-      <c r="D122" s="7">
+      <c r="E122" s="10">
         <v>6137.4970265999991</v>
       </c>
-      <c r="E122" s="10">
+      <c r="F122" s="9">
         <v>7.04</v>
       </c>
-      <c r="F122" s="12">
+      <c r="G122" s="9">
         <v>6.34</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>1.97</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C123" s="9">
+      <c r="D123" s="2">
         <v>9</v>
       </c>
-      <c r="D123" s="7">
+      <c r="E123" s="10">
         <v>7593.3699103000017</v>
       </c>
-      <c r="E123" s="10">
+      <c r="F123" s="9">
         <v>8.58</v>
       </c>
-      <c r="F123" s="12">
+      <c r="G123" s="9">
         <v>8.06</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>1.54</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>2.58</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="9">
+      <c r="D124" s="2">
         <v>10</v>
       </c>
-      <c r="D124" s="7">
+      <c r="E124" s="10">
         <v>5966.6233944000005</v>
       </c>
-      <c r="E124" s="10">
+      <c r="F124" s="9">
         <v>8.58</v>
       </c>
-      <c r="F124" s="12">
+      <c r="G124" s="9">
         <v>7.73</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>1.8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C125" s="9">
+      <c r="D125" s="2">
         <v>7</v>
       </c>
-      <c r="D125" s="7">
+      <c r="E125" s="10">
         <v>5896.862857398999</v>
       </c>
-      <c r="E125" s="10">
+      <c r="F125" s="9">
         <v>10.5</v>
       </c>
-      <c r="F125" s="12">
+      <c r="G125" s="9">
         <v>7.57</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>1.75</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>1.49</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C126" s="9">
+      <c r="D126" s="2">
         <v>7</v>
       </c>
-      <c r="D126" s="7">
+      <c r="E126" s="10">
         <v>6444.3500619740007</v>
       </c>
-      <c r="E126" s="10">
+      <c r="F126" s="9">
         <v>10.7</v>
       </c>
-      <c r="F126" s="12">
+      <c r="G126" s="9">
         <v>9.7799999999999994</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>1.48</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>2.19</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C127" s="9">
+      <c r="D127" s="2">
         <v>10</v>
       </c>
-      <c r="D127" s="7">
+      <c r="E127" s="10">
         <v>12442.352666549999</v>
       </c>
-      <c r="E127" s="10">
+      <c r="F127" s="9">
         <v>8.9499999999999993</v>
       </c>
-      <c r="F127" s="12">
+      <c r="G127" s="9">
         <v>5.44</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>1.48</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>1.99</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="9">
+      <c r="D128" s="2">
         <v>9</v>
       </c>
-      <c r="D128" s="7">
+      <c r="E128" s="10">
         <v>12099.902239483001</v>
       </c>
-      <c r="E128" s="10">
+      <c r="F128" s="9">
         <v>10.6</v>
       </c>
-      <c r="F128" s="12">
+      <c r="G128" s="9">
         <v>9.6300000000000008</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>2.21</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>2.23</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C129" s="9">
+      <c r="D129" s="2">
         <v>11</v>
       </c>
-      <c r="D129" s="7">
+      <c r="E129" s="10">
         <v>8469.5524722410028</v>
       </c>
-      <c r="E129" s="10">
+      <c r="F129" s="9">
         <v>6.8</v>
       </c>
-      <c r="F129" s="12">
+      <c r="G129" s="9">
         <v>5.77</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>2.54</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>2.36</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C130" s="9">
+      <c r="D130" s="2">
         <v>8</v>
       </c>
-      <c r="D130" s="7">
+      <c r="E130" s="10">
         <v>8053.8405952510029</v>
       </c>
-      <c r="E130" s="10">
+      <c r="F130" s="9">
         <v>9.64</v>
       </c>
-      <c r="F130" s="12">
+      <c r="G130" s="9">
         <v>8.86</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>1.69</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>1.57</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="9">
+      <c r="D131" s="2">
         <v>9</v>
       </c>
-      <c r="D131" s="7">
+      <c r="E131" s="10">
         <v>6485.4523797000011</v>
       </c>
-      <c r="E131" s="10">
+      <c r="F131" s="9">
         <v>5.62</v>
       </c>
-      <c r="F131" s="12">
+      <c r="G131" s="9">
         <v>4.84</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>2.27</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>1.57</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C132" s="9">
+      <c r="D132" s="2">
         <v>9</v>
       </c>
-      <c r="D132" s="7">
+      <c r="E132" s="10">
         <v>8892.1205549999977</v>
       </c>
-      <c r="E132" s="10">
+      <c r="F132" s="9">
         <v>5.54</v>
       </c>
-      <c r="F132" s="12">
+      <c r="G132" s="9">
         <v>5.09</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>1.31</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>1.59</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="9">
+      <c r="D133" s="2">
         <v>6</v>
       </c>
-      <c r="D133" s="7">
+      <c r="E133" s="10">
         <v>1523.0336360000003</v>
       </c>
-      <c r="E133" s="10">
+      <c r="F133" s="9">
         <v>1.86</v>
       </c>
-      <c r="F133" s="12">
+      <c r="G133" s="9">
         <v>1.31</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>0.621</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>0.27</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C134" s="9">
+      <c r="D134" s="2">
         <v>9</v>
       </c>
-      <c r="D134" s="7">
+      <c r="E134" s="10">
         <v>8688.6097900400018</v>
       </c>
-      <c r="E134" s="10">
+      <c r="F134" s="9">
         <v>10.1</v>
       </c>
-      <c r="F134" s="12">
+      <c r="G134" s="9">
         <v>8.84</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>1.8</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>2.42</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C135" s="9">
+      <c r="D135" s="2">
         <v>8</v>
       </c>
-      <c r="D135" s="7">
+      <c r="E135" s="10">
         <v>10182.020975790001</v>
       </c>
-      <c r="E135" s="10">
+      <c r="F135" s="9">
         <v>10.1</v>
       </c>
-      <c r="F135" s="12">
+      <c r="G135" s="9">
         <v>8.92</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>1.73</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>2.59</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C136" s="9">
+      <c r="D136" s="2">
         <v>7</v>
       </c>
-      <c r="D136" s="7">
+      <c r="E136" s="10">
         <v>6834.6952869699999</v>
       </c>
-      <c r="E136" s="10">
+      <c r="F136" s="9">
         <v>7.02</v>
       </c>
-      <c r="F136" s="12">
+      <c r="G136" s="9">
         <v>6.65</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>0.94099999999999995</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>1.97</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C137" s="9">
+      <c r="D137" s="2">
         <v>8</v>
       </c>
-      <c r="D137" s="7">
+      <c r="E137" s="10">
         <v>6651.2727220999986</v>
       </c>
-      <c r="E137" s="10">
+      <c r="F137" s="9">
         <v>9.82</v>
       </c>
-      <c r="F137" s="12">
+      <c r="G137" s="9">
         <v>9.5399999999999991</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>1.05</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>2.31</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C138" s="9">
+      <c r="D138" s="2">
         <v>10</v>
       </c>
-      <c r="D138" s="7">
+      <c r="E138" s="10">
         <v>10139.268538041501</v>
       </c>
-      <c r="E138" s="10">
+      <c r="F138" s="9">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F138" s="12">
+      <c r="G138" s="9">
         <v>7.47</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>1.69</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C139" s="9">
+      <c r="D139" s="2">
         <v>8</v>
       </c>
-      <c r="D139" s="7">
+      <c r="E139" s="10">
         <v>10984.5889252</v>
       </c>
-      <c r="E139" s="10">
+      <c r="F139" s="9">
         <v>3.3</v>
       </c>
-      <c r="F139" s="12">
+      <c r="G139" s="9">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>1.9</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>1.53</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C140" s="9">
+      <c r="D140" s="2">
         <v>7</v>
       </c>
-      <c r="D140" s="7">
+      <c r="E140" s="10">
         <v>9109.1922701900021</v>
       </c>
-      <c r="E140" s="10">
+      <c r="F140" s="9">
         <v>8.24</v>
       </c>
-      <c r="F140" s="12">
+      <c r="G140" s="9">
         <v>6.95</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>2.44</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C141" s="9">
+      <c r="D141" s="2">
         <v>12</v>
       </c>
-      <c r="D141" s="7">
+      <c r="E141" s="10">
         <v>12719.92099524</v>
       </c>
-      <c r="E141" s="10">
+      <c r="F141" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F141" s="12">
+      <c r="G141" s="9">
         <v>7.34</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>1.68</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>1.91</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C142" s="9">
+      <c r="D142" s="2">
         <v>13</v>
       </c>
-      <c r="D142" s="7">
+      <c r="E142" s="10">
         <v>11389.9612039</v>
       </c>
-      <c r="E142" s="10">
+      <c r="F142" s="9">
         <v>9</v>
       </c>
-      <c r="F142" s="12">
+      <c r="G142" s="9">
         <v>6.9</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>1.7</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>2.14</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C143" s="9">
+      <c r="D143" s="2">
         <v>10</v>
       </c>
-      <c r="D143" s="7">
+      <c r="E143" s="10">
         <v>7655.4775857770019</v>
       </c>
-      <c r="E143" s="10">
+      <c r="F143" s="9">
         <v>7.13</v>
       </c>
-      <c r="F143" s="12">
+      <c r="G143" s="9">
         <v>4.43</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>1.66</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>1.68</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C144" s="9">
+      <c r="D144" s="2">
         <v>9</v>
       </c>
-      <c r="D144" s="7">
+      <c r="E144" s="10">
         <v>7985.2510065949982</v>
       </c>
-      <c r="E144" s="10">
+      <c r="F144" s="9">
         <v>7.04</v>
       </c>
-      <c r="F144" s="12">
+      <c r="G144" s="9">
         <v>6.23</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>1.71</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>2.29</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C145" s="9">
+      <c r="D145" s="2">
         <v>9</v>
       </c>
-      <c r="D145" s="7">
+      <c r="E145" s="10">
         <v>7321.9488880000008</v>
       </c>
-      <c r="E145" s="10">
+      <c r="F145" s="9">
         <v>7.16</v>
       </c>
-      <c r="F145" s="12">
+      <c r="G145" s="9">
         <v>6.4988427337325145</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>1.86</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>1.76</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C146" s="9">
+      <c r="D146" s="2">
         <v>9</v>
       </c>
-      <c r="D146" s="7">
+      <c r="E146" s="10">
         <v>8091.2014744300004</v>
       </c>
-      <c r="E146" s="10">
+      <c r="F146" s="9">
         <v>9.68</v>
       </c>
-      <c r="F146" s="12">
+      <c r="G146" s="9">
         <v>7.8326317979821845</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C147" s="9">
+      <c r="D147" s="2">
         <v>9</v>
       </c>
-      <c r="D147" s="7">
+      <c r="E147" s="10">
         <v>8450.8163672459978</v>
       </c>
-      <c r="E147" s="10">
+      <c r="F147" s="9">
         <v>6.7</v>
       </c>
-      <c r="F147" s="12">
+      <c r="G147" s="9">
         <v>5.54</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>2.41</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>2.39</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C148" s="9">
+      <c r="D148" s="2">
         <v>8</v>
       </c>
-      <c r="D148" s="7">
+      <c r="E148" s="10">
         <v>9460.7566630599995</v>
       </c>
-      <c r="E148" s="10">
+      <c r="F148" s="9">
         <v>7.97</v>
       </c>
-      <c r="F148" s="12">
+      <c r="G148" s="9">
         <v>6.5427904174335616</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>2.1</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>1.73</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C149" s="9">
+      <c r="D149" s="2">
         <v>8</v>
       </c>
-      <c r="D149" s="7">
+      <c r="E149" s="10">
         <v>7925.2941554999979</v>
       </c>
-      <c r="E149" s="10">
+      <c r="F149" s="9">
         <v>8.42</v>
       </c>
-      <c r="F149" s="12">
+      <c r="G149" s="9">
         <v>6.9485124680394907</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>2.4</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>1.96</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C150" s="9">
+      <c r="D150" s="2">
         <v>8</v>
       </c>
-      <c r="D150" s="7">
+      <c r="E150" s="10">
         <v>7622.4300285630006</v>
       </c>
-      <c r="E150" s="10">
+      <c r="F150" s="9">
         <v>6.86</v>
       </c>
-      <c r="F150" s="12">
+      <c r="G150" s="9">
         <v>6.52</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>0.999</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>1.66</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C151" s="9">
+      <c r="D151" s="2">
         <v>10</v>
       </c>
-      <c r="D151" s="7">
+      <c r="E151" s="10">
         <v>7065.7560272999999</v>
       </c>
-      <c r="E151" s="10">
+      <c r="F151" s="9">
         <v>4.75</v>
       </c>
-      <c r="F151" s="12">
+      <c r="G151" s="9">
         <v>4.634415611681252</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>1.66</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>1.8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C152" s="9">
+      <c r="D152" s="2">
         <v>8</v>
       </c>
-      <c r="D152" s="7">
+      <c r="E152" s="10">
         <v>7402.3181687949991</v>
       </c>
-      <c r="E152" s="10">
+      <c r="F152" s="9">
         <v>7.7</v>
       </c>
-      <c r="F152" s="12">
+      <c r="G152" s="9">
         <v>6.9155494095570056</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>1.22</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>2.6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C153" s="9">
+      <c r="D153" s="2">
         <v>10</v>
       </c>
-      <c r="D153" s="7">
+      <c r="E153" s="10">
         <v>10900.665416391999</v>
       </c>
-      <c r="E153" s="10">
+      <c r="F153" s="9">
         <v>6.49</v>
       </c>
-      <c r="F153" s="12">
+      <c r="G153" s="9">
         <v>6.0238575213176304</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>1.41</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>1.99</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="9">
+      <c r="D154" s="2">
         <v>11</v>
       </c>
-      <c r="D154" s="7">
+      <c r="E154" s="10">
         <v>12608.93389296</v>
       </c>
-      <c r="E154" s="10">
+      <c r="F154" s="9">
         <v>10.4</v>
       </c>
-      <c r="F154" s="12">
+      <c r="G154" s="9">
         <v>9.5541334975522787</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>1.69</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>2.44</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C155" s="9">
+      <c r="D155" s="2">
         <v>9</v>
       </c>
-      <c r="D155" s="7">
+      <c r="E155" s="10">
         <v>8315.9515297125999</v>
       </c>
-      <c r="E155" s="10">
+      <c r="F155" s="9">
         <v>9.76</v>
       </c>
-      <c r="F155" s="12">
+      <c r="G155" s="9">
         <v>9.3029615093160043</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>1.06</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>2.12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C156" s="9">
+      <c r="D156" s="2">
         <v>10</v>
       </c>
-      <c r="D156" s="7">
+      <c r="E156" s="10">
         <v>8930.935277999999</v>
       </c>
-      <c r="E156" s="10">
+      <c r="F156" s="9">
         <v>11.6</v>
       </c>
-      <c r="F156" s="12">
+      <c r="G156" s="9">
         <v>10.645329046800262</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>1.76</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>2.64</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C157" s="9">
+      <c r="D157" s="2">
         <v>12</v>
       </c>
-      <c r="D157" s="7">
+      <c r="E157" s="10">
         <v>10085.874825479003</v>
       </c>
-      <c r="E157" s="10">
+      <c r="F157" s="9">
         <v>9.6199999999999992</v>
       </c>
-      <c r="F157" s="12">
+      <c r="G157" s="9">
         <v>8.7103500985118245</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>0.98499999999999999</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>1.52</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C158" s="9">
+      <c r="D158" s="2">
         <v>9</v>
       </c>
-      <c r="D158" s="7">
+      <c r="E158" s="10">
         <v>7153.0362130499998</v>
       </c>
-      <c r="E158" s="10">
+      <c r="F158" s="9">
         <v>7.31</v>
       </c>
-      <c r="F158" s="12">
+      <c r="G158" s="9">
         <v>5.9011887414268598</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C159" s="9">
+      <c r="D159" s="2">
         <v>8</v>
       </c>
-      <c r="D159" s="7">
+      <c r="E159" s="10">
         <v>8617.2813404999997</v>
       </c>
-      <c r="E159" s="10">
+      <c r="F159" s="9">
         <v>10.1</v>
       </c>
-      <c r="F159" s="12">
+      <c r="G159" s="9">
         <v>8.4323800916038287</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>2.41</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>2.36</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C160" s="9">
+      <c r="D160" s="2">
         <v>8</v>
       </c>
-      <c r="D160" s="7">
+      <c r="E160" s="10">
         <v>9626.7940404459987</v>
       </c>
-      <c r="E160" s="10">
+      <c r="F160" s="9">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F160" s="12">
+      <c r="G160" s="9">
         <v>7.0791732176605944</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>1.18</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>1.78</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C161" s="9">
+      <c r="D161" s="2">
         <v>9</v>
       </c>
-      <c r="D161" s="7">
+      <c r="E161" s="10">
         <v>8418.2399523000004</v>
       </c>
-      <c r="E161" s="10">
+      <c r="F161" s="9">
         <v>9.01</v>
       </c>
-      <c r="F161" s="12">
+      <c r="G161" s="9">
         <v>8.2425480058658422</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>1.36</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>2.36</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="C162" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C162" s="9">
+      <c r="D162" s="2">
         <v>9</v>
       </c>
-      <c r="D162" s="7">
+      <c r="E162" s="10">
         <v>6974.7869930220004</v>
       </c>
-      <c r="E162" s="10">
+      <c r="F162" s="9">
         <v>8.36</v>
       </c>
-      <c r="F162" s="12">
+      <c r="G162" s="9">
         <v>7.761149425688175</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>1.75</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>2.38</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C163" s="9">
+      <c r="D163" s="2">
         <v>10</v>
       </c>
-      <c r="D163" s="7">
+      <c r="E163" s="10">
         <v>10688.095254130003</v>
       </c>
-      <c r="E163" s="10">
+      <c r="F163" s="9">
         <v>8.4700000000000006</v>
       </c>
-      <c r="F163" s="12">
+      <c r="G163" s="9">
         <v>7.1708890383060355</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>1.47</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>1.78</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C164" s="9">
+      <c r="D164" s="2">
         <v>8</v>
       </c>
-      <c r="D164" s="7">
+      <c r="E164" s="10">
         <v>7304.5100652154006</v>
       </c>
-      <c r="E164" s="10">
+      <c r="F164" s="9">
         <v>9.02</v>
       </c>
-      <c r="F164" s="12">
+      <c r="G164" s="9">
         <v>8.7559511709394311</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>1.48</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C165" s="9">
+      <c r="D165" s="2">
         <v>12</v>
       </c>
-      <c r="D165" s="7">
+      <c r="E165" s="10">
         <v>12453.6437843643</v>
       </c>
-      <c r="E165" s="10">
+      <c r="F165" s="9">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F165" s="12">
+      <c r="G165" s="9">
         <v>6.8112033046502312</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>1.74</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C166" s="9">
+      <c r="D166" s="2">
         <v>8</v>
       </c>
-      <c r="D166" s="7">
+      <c r="E166" s="10">
         <v>9365.6646546799984</v>
       </c>
-      <c r="E166" s="10">
+      <c r="F166" s="9">
         <v>7.44</v>
       </c>
-      <c r="F166" s="12">
+      <c r="G166" s="9">
         <v>5.6863978960918296</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>1.97</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>2.12</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C167" s="9">
+      <c r="D167" s="2">
         <v>7</v>
       </c>
-      <c r="D167" s="7">
+      <c r="E167" s="10">
         <v>5659.2724725099997</v>
       </c>
-      <c r="E167" s="10">
+      <c r="F167" s="9">
         <v>6.77</v>
       </c>
-      <c r="F167" s="12">
+      <c r="G167" s="9">
         <v>5.4999096230248892</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>1.29</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C168" s="9">
+      <c r="D168" s="2">
         <v>7</v>
       </c>
-      <c r="D168" s="7">
+      <c r="E168" s="10">
         <v>8843.6879778000002</v>
       </c>
-      <c r="E168" s="10">
+      <c r="F168" s="9">
         <v>7.4</v>
       </c>
-      <c r="F168" s="12">
+      <c r="G168" s="9">
         <v>6.4756213182069997</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>1.06</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>1.9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="9">
+      <c r="D169" s="2">
         <v>7</v>
       </c>
-      <c r="D169" s="7">
+      <c r="E169" s="10">
         <v>8664.1488014589995</v>
       </c>
-      <c r="E169" s="10">
+      <c r="F169" s="9">
         <v>8.9700000000000006</v>
       </c>
-      <c r="F169" s="12">
+      <c r="G169" s="9">
         <v>5.7081726774259218</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>1.67</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>2.31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>